--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_22_6.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_22_6.xlsx
@@ -518,496 +518,496 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_14</t>
+          <t>model_22_6_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9949625860912763</v>
+        <v>0.9649318106087506</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8306500816579159</v>
+        <v>0.715329825822995</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7755135959131991</v>
+        <v>0.8171545014805182</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9956705619503275</v>
+        <v>0.7152520611138771</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9857070194574076</v>
+        <v>0.7924429821021777</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03368521000279397</v>
+        <v>0.2345011439334499</v>
       </c>
       <c r="H2" t="n">
-        <v>1.132443683738189</v>
+        <v>1.903590765507258</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1458400610518349</v>
+        <v>0.9527427443019097</v>
       </c>
       <c r="J2" t="n">
-        <v>0.05771703190757799</v>
+        <v>0.5128893923584384</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1017785464797064</v>
+        <v>0.7328156917440498</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4404716482688265</v>
+        <v>0.4039332013669104</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1835353099618544</v>
+        <v>0.4842531816451492</v>
       </c>
       <c r="N2" t="n">
-        <v>1.00212101638262</v>
+        <v>1.014765553427895</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1913487880773983</v>
+        <v>0.5048688421300624</v>
       </c>
       <c r="P2" t="n">
-        <v>168.7813928205542</v>
+        <v>164.9005896258533</v>
       </c>
       <c r="Q2" t="n">
-        <v>267.5103346348785</v>
+        <v>263.6295314401776</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_15</t>
+          <t>model_22_6_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.994744847832574</v>
+        <v>0.9649272275896347</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8306455646299113</v>
+        <v>0.7153233693365382</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7629226244192985</v>
+        <v>0.8171335889091729</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9955022381142071</v>
+        <v>0.7152062107829282</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9849750845210373</v>
+        <v>0.7924158580869388</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03514122674132875</v>
+        <v>0.2345317906033806</v>
       </c>
       <c r="H3" t="n">
-        <v>1.132473889125254</v>
+        <v>1.903633940061924</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1540199241435096</v>
+        <v>0.9528517122599681</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05996100724772815</v>
+        <v>0.5129719782007515</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1069905646252209</v>
+        <v>0.7329114577373728</v>
       </c>
       <c r="L3" t="n">
-        <v>0.4454279229268513</v>
+        <v>0.403842887297589</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1874599336960534</v>
+        <v>0.484284823841694</v>
       </c>
       <c r="N3" t="n">
-        <v>1.002212695649443</v>
+        <v>1.014767483120154</v>
       </c>
       <c r="O3" t="n">
-        <v>0.1954404911690533</v>
+        <v>0.5049018314004224</v>
       </c>
       <c r="P3" t="n">
-        <v>168.6967605734415</v>
+        <v>164.9003282653584</v>
       </c>
       <c r="Q3" t="n">
-        <v>267.4257023877657</v>
+        <v>263.6292700796827</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_13</t>
+          <t>model_22_6_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9951920862997463</v>
+        <v>0.9649261124491513</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8306427330973426</v>
+        <v>0.7153218432455244</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7890722854632528</v>
+        <v>0.8171286282242998</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9958518220018192</v>
+        <v>0.7151946860967364</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9864951918012997</v>
+        <v>0.7924091480792081</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03215054105200352</v>
+        <v>0.2345392475529273</v>
       </c>
       <c r="H4" t="n">
-        <v>1.132492823596579</v>
+        <v>1.903644145039559</v>
       </c>
       <c r="I4" t="n">
-        <v>0.137031509283158</v>
+        <v>0.952877560621333</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05530060001607594</v>
+        <v>0.5129927365223784</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0961660687114903</v>
+        <v>0.7329351485718558</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4350030691965822</v>
+        <v>0.4038205435463675</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1793057195183788</v>
+        <v>0.4842925227101151</v>
       </c>
       <c r="N4" t="n">
-        <v>1.002024384715896</v>
+        <v>1.014767952652989</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1869391352122847</v>
+        <v>0.5049098580256111</v>
       </c>
       <c r="P4" t="n">
-        <v>168.8746519989018</v>
+        <v>164.9002646762733</v>
       </c>
       <c r="Q4" t="n">
-        <v>267.603593813226</v>
+        <v>263.6292064905975</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_16</t>
+          <t>model_22_6_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9945397758044194</v>
+        <v>0.96492601625846</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8306324513915647</v>
+        <v>0.7153218045768532</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7512742003992514</v>
+        <v>0.8171282859538188</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9953465284625662</v>
+        <v>0.7151934442971246</v>
       </c>
       <c r="F5" t="n">
-        <v>0.984297965801013</v>
+        <v>0.7924086854278541</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03651254433786754</v>
+        <v>0.2345398907805236</v>
       </c>
       <c r="H5" t="n">
-        <v>1.132561577410459</v>
+        <v>1.903644403617142</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1615874509037692</v>
+        <v>0.9528793440708569</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0620368191265358</v>
+        <v>0.5129949732579657</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1118122432746049</v>
+        <v>0.7329367820419037</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4499138575900036</v>
+        <v>0.4038219552112783</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1910825589578168</v>
+        <v>0.4842931867996117</v>
       </c>
       <c r="N5" t="n">
-        <v>1.00229904176656</v>
+        <v>1.014767993154333</v>
       </c>
       <c r="O5" t="n">
-        <v>0.1992173390880781</v>
+        <v>0.5049105503867725</v>
       </c>
       <c r="P5" t="n">
-        <v>168.6201987938976</v>
+        <v>164.9002591912492</v>
       </c>
       <c r="Q5" t="n">
-        <v>267.3491406082218</v>
+        <v>263.6292010055734</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_12</t>
+          <t>model_22_6_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.995431745658925</v>
+        <v>0.964926046799311</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8306193527495123</v>
+        <v>0.7153217388940274</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8036062442112463</v>
+        <v>0.817128364654047</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9960460627669269</v>
+        <v>0.7151939252661932</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9873400284467158</v>
+        <v>0.7924086726939809</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03054793781364542</v>
+        <v>0.2345396865537115</v>
       </c>
       <c r="H6" t="n">
-        <v>1.132649168090178</v>
+        <v>1.903644842838501</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1275893631551785</v>
+        <v>0.9528789339920087</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05271111835382679</v>
+        <v>0.5129941069341066</v>
       </c>
       <c r="K6" t="n">
-        <v>0.09015009146118934</v>
+        <v>0.7329368270010299</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4289827304987137</v>
+        <v>0.4038182601532074</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1747796836409925</v>
+        <v>0.4842929759491784</v>
       </c>
       <c r="N6" t="n">
-        <v>1.001923475512032</v>
+        <v>1.014767980295027</v>
       </c>
       <c r="O6" t="n">
-        <v>0.1822204166174122</v>
+        <v>0.5049103305599997</v>
       </c>
       <c r="P6" t="n">
-        <v>168.9769161953025</v>
+        <v>164.9002609327602</v>
       </c>
       <c r="Q6" t="n">
-        <v>267.7058580096267</v>
+        <v>263.6292027470844</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_17</t>
+          <t>model_22_6_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9943478037337167</v>
+        <v>0.964925979017909</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8306132403830637</v>
+        <v>0.715321686672294</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7405332383521231</v>
+        <v>0.8171280377870553</v>
       </c>
       <c r="E7" t="n">
-        <v>0.995202923500495</v>
+        <v>0.7151932981010263</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9836735898214038</v>
+        <v>0.7924082561843661</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03779626245860717</v>
+        <v>0.2345401398082594</v>
       </c>
       <c r="H7" t="n">
-        <v>1.132690041512764</v>
+        <v>1.903645192045472</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1685654350141251</v>
+        <v>0.9528806371794389</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0639512597728412</v>
+        <v>0.5129952365870996</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1162583473934831</v>
+        <v>0.7329382975597448</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4539825920936765</v>
+        <v>0.4038188909492963</v>
       </c>
       <c r="M7" t="n">
-        <v>0.194412608795333</v>
+        <v>0.4842934439038582</v>
       </c>
       <c r="N7" t="n">
-        <v>1.002379872112119</v>
+        <v>1.014768008834565</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2026891560413308</v>
+        <v>0.504910818436479</v>
       </c>
       <c r="P7" t="n">
-        <v>168.5510901160033</v>
+        <v>164.9002570677076</v>
       </c>
       <c r="Q7" t="n">
-        <v>267.2800319303275</v>
+        <v>263.6291988820319</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_18</t>
+          <t>model_22_6_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9941690225567039</v>
+        <v>0.9649259358977922</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8305899671054694</v>
+        <v>0.7153216445327198</v>
       </c>
       <c r="D8" t="n">
-        <v>0.730659000803602</v>
+        <v>0.8171278579931296</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9950708005734831</v>
+        <v>0.715192817688576</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9830994837096699</v>
+        <v>0.7924080546370531</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03899177301250333</v>
+        <v>0.234540428152679</v>
       </c>
       <c r="H8" t="n">
-        <v>1.132845670027201</v>
+        <v>1.903645473832999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1749803420227465</v>
+        <v>0.952881574021525</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06571262997991578</v>
+        <v>0.5129961019083752</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1203464860013311</v>
+        <v>0.7329390091571411</v>
       </c>
       <c r="L8" t="n">
-        <v>0.4576561814374548</v>
+        <v>0.4038183196371889</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1974633459974365</v>
+        <v>0.4842937415997434</v>
       </c>
       <c r="N8" t="n">
-        <v>1.002455148397177</v>
+        <v>1.014768026990403</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2058697694420245</v>
+        <v>0.5049111288058944</v>
       </c>
       <c r="P8" t="n">
-        <v>168.4888092070052</v>
+        <v>164.9002546089025</v>
       </c>
       <c r="Q8" t="n">
-        <v>267.2177510213294</v>
+        <v>263.6291964232268</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_11</t>
+          <t>model_22_6_22</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9956792589793644</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8305747931488745</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8191028226942603</v>
+        <v>0.8171274128320627</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9962533436242978</v>
+        <v>0.7151913806844969</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9882409326697409</v>
+        <v>0.7924075147564189</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0288928151001736</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H9" t="n">
-        <v>1.132947138344821</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I9" t="n">
-        <v>0.117521840530586</v>
+        <v>0.9528838935972316</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04994779532634556</v>
+        <v>0.5129986902472118</v>
       </c>
       <c r="K9" t="n">
-        <v>0.08373486392598814</v>
+        <v>0.7329409152984244</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4223463504997529</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1699788666281006</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N9" t="n">
-        <v>1.00181925937711</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O9" t="n">
-        <v>0.1772152188852203</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P9" t="n">
-        <v>169.0883246544474</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q9" t="n">
-        <v>267.8172664687716</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_19</t>
+          <t>model_22_6_21</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9940032155033628</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8305641641377688</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7216011854822975</v>
+        <v>0.8171274128320627</v>
       </c>
       <c r="E10" t="n">
-        <v>0.994949599447824</v>
+        <v>0.7151913806844969</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9825728297359618</v>
+        <v>0.7924075147564189</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04010052554166654</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H10" t="n">
-        <v>1.133018214591026</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1808648513534075</v>
+        <v>0.9528838935972316</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06732839839065202</v>
+        <v>0.5129986902472118</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1240967238038694</v>
+        <v>0.7329409152984244</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4609841081096986</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2002511561556301</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N10" t="n">
-        <v>1.002524961893321</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O10" t="n">
-        <v>0.2087762624502149</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P10" t="n">
-        <v>168.4327316779566</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q10" t="n">
-        <v>267.1616734922808</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="11">
@@ -1017,877 +1017,877 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9938500342570452</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C11" t="n">
-        <v>0.830536963474531</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7133115744032131</v>
+        <v>0.8171274128320627</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9948386631484867</v>
+        <v>0.7151913806844969</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9820908550615267</v>
+        <v>0.7924075147564189</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04112484924112694</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H11" t="n">
-        <v>1.133200105551345</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1862502883503053</v>
+        <v>0.9528838935972316</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06880732333543713</v>
+        <v>0.5129986902472118</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1275288058428712</v>
+        <v>0.7329409152984244</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4639928792658938</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2027926262000839</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N11" t="n">
-        <v>1.002589459260191</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2114259281360294</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P11" t="n">
-        <v>168.3822854715451</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q11" t="n">
-        <v>267.1112272858694</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_21</t>
+          <t>model_22_6_19</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9937089331016947</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8305093165308658</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D12" t="n">
-        <v>0.7057391488433555</v>
+        <v>0.8171274128320627</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9947372310211956</v>
+        <v>0.7151913806844969</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9816504952437964</v>
+        <v>0.7924075147564189</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04206839331666653</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H12" t="n">
-        <v>1.133384980790937</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1911697978878766</v>
+        <v>0.9528838935972316</v>
       </c>
       <c r="J12" t="n">
-        <v>0.07015954532363503</v>
+        <v>0.5129986902472118</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1306645536348096</v>
+        <v>0.7329409152984244</v>
       </c>
       <c r="L12" t="n">
-        <v>0.4667073481292905</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2051058100509747</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N12" t="n">
-        <v>1.002648870272971</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2138375890124034</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P12" t="n">
-        <v>168.3369171456458</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q12" t="n">
-        <v>267.06585895997</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_10</t>
+          <t>model_22_6_18</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9959311937952671</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8305024489667379</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8355233564279669</v>
+        <v>0.8171274128320627</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9964730616081909</v>
+        <v>0.7151913806844969</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9891956606545348</v>
+        <v>0.7924075147564189</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02720812582617866</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H13" t="n">
-        <v>1.133430904223883</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1068540602168102</v>
+        <v>0.9528838935972316</v>
       </c>
       <c r="J13" t="n">
-        <v>0.04701866925004492</v>
+        <v>0.5129986902472118</v>
       </c>
       <c r="K13" t="n">
-        <v>0.07693636404093934</v>
+        <v>0.7329409152984244</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4150420161943637</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M13" t="n">
-        <v>0.1649488582142315</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N13" t="n">
-        <v>1.001713181559888</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O13" t="n">
-        <v>0.1719710725996199</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P13" t="n">
-        <v>169.2084792133713</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q13" t="n">
-        <v>267.9374210276956</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_22</t>
+          <t>model_22_6_17</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9935793834581237</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8304817818384826</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6988346331745101</v>
+        <v>0.8171274128320627</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9946448009296747</v>
+        <v>0.7151913806844969</v>
       </c>
       <c r="F14" t="n">
-        <v>0.981248971630901</v>
+        <v>0.7924075147564189</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04293469237974752</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H14" t="n">
-        <v>1.133569105405688</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1956553924198663</v>
+        <v>0.9528838935972316</v>
       </c>
       <c r="J14" t="n">
-        <v>0.07139175848394111</v>
+        <v>0.5129986902472118</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1335237536159473</v>
+        <v>0.7329409152984244</v>
       </c>
       <c r="L14" t="n">
-        <v>0.4691604112191405</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2072068830414364</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N14" t="n">
-        <v>1.002703417491316</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2160281090298897</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P14" t="n">
-        <v>168.2961501993464</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q14" t="n">
-        <v>267.0250920136706</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_23</t>
+          <t>model_22_6_16</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9934606201355413</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8304549052356398</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6925458661664368</v>
+        <v>0.8171274128320627</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9945604981574288</v>
+        <v>0.7151913806844969</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9808832186740868</v>
+        <v>0.7924075147564189</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04372886326471147</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H15" t="n">
-        <v>1.133748829372654</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1997409590631075</v>
+        <v>0.9528838935972316</v>
       </c>
       <c r="J15" t="n">
-        <v>0.07251562392324097</v>
+        <v>0.5129986902472118</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1361282351797656</v>
+        <v>0.7329409152984244</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4713753386397021</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2091144740679408</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N15" t="n">
-        <v>1.002753423100825</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2180169101556501</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P15" t="n">
-        <v>168.2594938165984</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q15" t="n">
-        <v>266.9884356309227</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_24</t>
+          <t>model_22_6_15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9933520611374589</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C16" t="n">
-        <v>0.830428994964075</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6868278683141178</v>
+        <v>0.8171274128320627</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9944838741825907</v>
+        <v>0.7151913806844969</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9805506493591944</v>
+        <v>0.7924075147564189</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0444547977847559</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H16" t="n">
-        <v>1.133922091477914</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2034557192476663</v>
+        <v>0.9528838935972316</v>
       </c>
       <c r="J16" t="n">
-        <v>0.07353712102052551</v>
+        <v>0.5129986902472118</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1384964201340959</v>
+        <v>0.7329409152984244</v>
       </c>
       <c r="L16" t="n">
-        <v>0.4733740707539329</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M16" t="n">
-        <v>0.210843064350611</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N16" t="n">
-        <v>1.002799132152649</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2198190901053288</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P16" t="n">
-        <v>168.2265647723641</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q16" t="n">
-        <v>266.9555065866883</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_9</t>
+          <t>model_22_6_12</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9961828145005004</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8303941371813622</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8527888315798955</v>
+        <v>0.8171274128320627</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9967043812896235</v>
+        <v>0.7151913806844969</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9901997683963349</v>
+        <v>0.7924075147564189</v>
       </c>
       <c r="G17" t="n">
-        <v>0.02552553701167718</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H17" t="n">
-        <v>1.134155185631419</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I17" t="n">
-        <v>0.09563735441901675</v>
+        <v>0.9528838935972316</v>
       </c>
       <c r="J17" t="n">
-        <v>0.04393487747824637</v>
+        <v>0.5129986902472118</v>
       </c>
       <c r="K17" t="n">
-        <v>0.06978623701425685</v>
+        <v>0.7329409152984244</v>
       </c>
       <c r="L17" t="n">
-        <v>0.4070241549792982</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M17" t="n">
-        <v>0.1597671337030153</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N17" t="n">
-        <v>1.001607235999789</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O17" t="n">
-        <v>0.1665687513483128</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P17" t="n">
-        <v>169.3361517529948</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q17" t="n">
-        <v>268.065093567319</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_8</t>
+          <t>model_22_6_13</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9964277701403175</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8302396228029207</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8707777981702922</v>
+        <v>0.8171274128320627</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9969458547515011</v>
+        <v>0.7151913806844969</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9912464525096991</v>
+        <v>0.7924075147564189</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02388751752030338</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H18" t="n">
-        <v>1.135188423991531</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I18" t="n">
-        <v>0.08395062445211665</v>
+        <v>0.9528838935972316</v>
       </c>
       <c r="J18" t="n">
-        <v>0.04071572262624776</v>
+        <v>0.5129986902472118</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0623329289121328</v>
+        <v>0.7329409152984244</v>
       </c>
       <c r="L18" t="n">
-        <v>0.3982133544400577</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M18" t="n">
-        <v>0.1545558718402616</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N18" t="n">
-        <v>1.001504096783024</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O18" t="n">
-        <v>0.1611356352792625</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P18" t="n">
-        <v>169.4687984719307</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q18" t="n">
-        <v>268.1977402862549</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_7</t>
+          <t>model_22_6_23</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9966576011259647</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8300261762023062</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8893058582079512</v>
+        <v>0.8171274128320627</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9971952965002061</v>
+        <v>0.7151913806844969</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9923251014360507</v>
+        <v>0.7924075147564189</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02235063666100609</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H19" t="n">
-        <v>1.136615742392671</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I19" t="n">
-        <v>0.07191366649888831</v>
+        <v>0.9528838935972316</v>
       </c>
       <c r="J19" t="n">
-        <v>0.03739034016230969</v>
+        <v>0.5129986902472118</v>
       </c>
       <c r="K19" t="n">
-        <v>0.054652003330599</v>
+        <v>0.7329409152984244</v>
       </c>
       <c r="L19" t="n">
-        <v>0.3885500148070641</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M19" t="n">
-        <v>0.1495012931750294</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N19" t="n">
-        <v>1.001407325841699</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O19" t="n">
-        <v>0.155865872735831</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P19" t="n">
-        <v>169.6018009447544</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q19" t="n">
-        <v>268.3307427590786</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_6</t>
+          <t>model_22_6_11</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.996861207164308</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8297380741940356</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9081131357996053</v>
+        <v>0.8171274128320627</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9974496472330366</v>
+        <v>0.7151913806844969</v>
       </c>
       <c r="F20" t="n">
-        <v>0.99342111182321</v>
+        <v>0.7924075147564189</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02098912214508405</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H20" t="n">
-        <v>1.138542281848565</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I20" t="n">
-        <v>0.05969531179120148</v>
+        <v>0.9528838935972316</v>
       </c>
       <c r="J20" t="n">
-        <v>0.03399951456460697</v>
+        <v>0.5129986902472118</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0468474489341721</v>
+        <v>0.7329409152984244</v>
       </c>
       <c r="L20" t="n">
-        <v>0.3779612179466963</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M20" t="n">
-        <v>0.1448762304350995</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N20" t="n">
-        <v>1.001321596983449</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O20" t="n">
-        <v>0.1510439114998626</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P20" t="n">
-        <v>169.7275019371094</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q20" t="n">
-        <v>268.4564437514337</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_5</t>
+          <t>model_22_6_10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9970242705238503</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8293558895735353</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D21" t="n">
-        <v>0.926846090893468</v>
+        <v>0.8171274128320627</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9977046418528842</v>
+        <v>0.7151913806844969</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9945143543503608</v>
+        <v>0.7924075147564189</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01989871670898674</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H21" t="n">
-        <v>1.141097952165648</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I21" t="n">
-        <v>0.04752524151151608</v>
+        <v>0.9528838935972316</v>
       </c>
       <c r="J21" t="n">
-        <v>0.03060010511674228</v>
+        <v>0.5129986902472118</v>
       </c>
       <c r="K21" t="n">
-        <v>0.03906260412649602</v>
+        <v>0.7329409152984244</v>
       </c>
       <c r="L21" t="n">
-        <v>0.3663753389236545</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M21" t="n">
-        <v>0.1410628112189274</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N21" t="n">
-        <v>1.0012529387268</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O21" t="n">
-        <v>0.147068147132792</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P21" t="n">
-        <v>169.8342000726333</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q21" t="n">
-        <v>268.5631418869576</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_4</t>
+          <t>model_22_6_9</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9971285858069643</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8288556612752661</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9450368196721778</v>
+        <v>0.8171274128320627</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9979548489030295</v>
+        <v>0.7151913806844969</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9955783723311895</v>
+        <v>0.7924075147564189</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01920115993047657</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H22" t="n">
-        <v>1.144442981099514</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I22" t="n">
-        <v>0.03570743452023562</v>
+        <v>0.9528838935972316</v>
       </c>
       <c r="J22" t="n">
-        <v>0.027264520190696</v>
+        <v>0.5129986902472118</v>
       </c>
       <c r="K22" t="n">
-        <v>0.03148586369826254</v>
+        <v>0.7329409152984244</v>
       </c>
       <c r="L22" t="n">
-        <v>0.3536994106804563</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M22" t="n">
-        <v>0.1385682500808774</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N22" t="n">
-        <v>1.001209016502331</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O22" t="n">
-        <v>0.1444673873626417</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P22" t="n">
-        <v>169.9055691774551</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q22" t="n">
-        <v>268.6345109917793</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_3</t>
+          <t>model_22_6_8</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9971510342261326</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8282080710235643</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9620733136125088</v>
+        <v>0.8171274128320627</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9981930876896794</v>
+        <v>0.7151913806844969</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9965785207315119</v>
+        <v>0.7924075147564189</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01905104724813266</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H23" t="n">
-        <v>1.148773420094523</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I23" t="n">
-        <v>0.02463948888462206</v>
+        <v>0.9528838935972316</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0240884877604056</v>
+        <v>0.5129986902472118</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0243639306524942</v>
+        <v>0.7329409152984244</v>
       </c>
       <c r="L23" t="n">
-        <v>0.3398463155220871</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M23" t="n">
-        <v>0.13802553114599</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N23" t="n">
-        <v>1.001199564536365</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O23" t="n">
-        <v>0.1439015637591131</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P23" t="n">
-        <v>169.9212664105303</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q23" t="n">
-        <v>268.6502082248546</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_2</t>
+          <t>model_22_6_7</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.997062617639203</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C24" t="n">
-        <v>0.8273769953367393</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9771704144301997</v>
+        <v>0.8171274128320627</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9984103504519144</v>
+        <v>0.7151913806844969</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9974705587351764</v>
+        <v>0.7924075147564189</v>
       </c>
       <c r="G24" t="n">
-        <v>0.01964228937205167</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H24" t="n">
-        <v>1.154330827039074</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01483149131829103</v>
+        <v>0.9528838935972316</v>
       </c>
       <c r="J24" t="n">
-        <v>0.02119209297744054</v>
+        <v>0.5129986902472118</v>
       </c>
       <c r="K24" t="n">
-        <v>0.01801183836865666</v>
+        <v>0.7329409152984244</v>
       </c>
       <c r="L24" t="n">
-        <v>0.324720380385604</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M24" t="n">
-        <v>0.1401509520911352</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N24" t="n">
-        <v>1.001236792572967</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O24" t="n">
-        <v>0.1461174682741211</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P24" t="n">
-        <v>169.8601408320882</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q24" t="n">
-        <v>268.5890826464125</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_1</t>
+          <t>model_22_6_14</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9968270176819769</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C25" t="n">
-        <v>0.8263184187337399</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9893298084819911</v>
+        <v>0.8171274128320627</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9985952716097971</v>
+        <v>0.7151913806844969</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9981983383722098</v>
+        <v>0.7924075147564189</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02121774737086026</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H25" t="n">
-        <v>1.161409533657628</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I25" t="n">
-        <v>0.006932007257862579</v>
+        <v>0.9528838935972316</v>
       </c>
       <c r="J25" t="n">
-        <v>0.01872685378301191</v>
+        <v>0.5129986902472118</v>
       </c>
       <c r="K25" t="n">
-        <v>0.01282940959573208</v>
+        <v>0.7329409152984244</v>
       </c>
       <c r="L25" t="n">
-        <v>0.3081978563914082</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M25" t="n">
-        <v>0.1456631297578775</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N25" t="n">
-        <v>1.001335992554957</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O25" t="n">
-        <v>0.1518643107559174</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P25" t="n">
-        <v>169.7058346147512</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q25" t="n">
-        <v>268.4347764290755</v>
+        <v>263.629189727047</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_22_6_0</t>
+          <t>model_22_6_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9963991878650896</v>
+        <v>0.9649258184664765</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8249785180956868</v>
+        <v>0.7153214174682279</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9972949767614339</v>
+        <v>0.8171274128320627</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9987339385804719</v>
+        <v>0.7151913806844969</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9986914812819124</v>
+        <v>0.7924075147564189</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02407864732636083</v>
+        <v>0.2345412134164277</v>
       </c>
       <c r="H26" t="n">
-        <v>1.170369455393964</v>
+        <v>1.903646992214302</v>
       </c>
       <c r="I26" t="n">
-        <v>0.001757348093591367</v>
+        <v>0.9528838935972316</v>
       </c>
       <c r="J26" t="n">
-        <v>0.01687824297506454</v>
+        <v>0.5129986902472118</v>
       </c>
       <c r="K26" t="n">
-        <v>0.009317799934840174</v>
+        <v>0.7329409152984244</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2901475560945764</v>
+        <v>0.4038156865157607</v>
       </c>
       <c r="M26" t="n">
-        <v>0.1551729593916441</v>
+        <v>0.4842945523299097</v>
       </c>
       <c r="N26" t="n">
-        <v>1.001516131425225</v>
+        <v>1.014768076435168</v>
       </c>
       <c r="O26" t="n">
-        <v>0.1617789935252546</v>
+        <v>0.5049119740505222</v>
       </c>
       <c r="P26" t="n">
-        <v>169.4528596685476</v>
+        <v>164.9002479127228</v>
       </c>
       <c r="Q26" t="n">
-        <v>268.1818014828718</v>
+        <v>263.629189727047</v>
       </c>
     </row>
   </sheetData>
